--- a/data/appointments.xlsx
+++ b/data/appointments.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,14 +448,14 @@
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
     <col width="11" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="28" customWidth="1" min="13" max="13"/>
@@ -1017,15 +1017,11 @@
           <t>Aetna</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
+      <c r="K6" s="2" t="n">
+        <v>12345</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>12345</v>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
@@ -1074,6 +1070,204 @@
       <c r="W6" s="2" t="inlineStr">
         <is>
           <t>2025-09-05T01:32:31.027631</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>APT_20250905_230008_001</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>PAT_056</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Shreyansh Bhatter</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Naveen</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Jubliee Hills</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr"/>
+      <c r="H7" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>Cigna</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>12345</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>12345</v>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-05T23:00:08.624048</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>shre@gmail.com</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>(701) 368-4370</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>07/07/2004</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-05T23:00:08.624048</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-05T23:00:09.154338</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>APT_20250905_230844_001</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>PAT_057</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Palak Bhatter</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Shreyansh</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Banjara Hills</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr"/>
+      <c r="H8" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>Blue Cross Blue Shield</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-05T23:08:44.538698</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>palak@gmail.com</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>(951) 534-0530</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>01/02/2002</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-05T23:08:44.538698</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-05T23:08:45.028881</t>
         </is>
       </c>
     </row>

--- a/data/appointments.xlsx
+++ b/data/appointments.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1211,15 +1211,11 @@
           <t>Blue Cross Blue Shield</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
+      <c r="K8" s="2" t="n">
+        <v>12345</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>12345</v>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
@@ -1268,6 +1264,301 @@
       <c r="W8" s="2" t="inlineStr">
         <is>
           <t>2025-09-05T23:08:45.028881</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>APT_20250905_233348_001</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>PAT_058</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Sachin Gupta</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Shreyansh</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Banjara Hills</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr"/>
+      <c r="H9" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>Blue Cross Blue Shield</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>12345</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>12345</v>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-05T23:33:48.826418</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>sachin@elevate.in</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>(701) 367-4280</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>12/12/1991</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-05T23:33:48.826418</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-05T23:33:49.323354</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>APT_20250906_021436_001</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>PAT_058</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Parag Patil</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Naresh</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Gachibowli</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr"/>
+      <c r="H10" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>Blue Cross Blue Shield</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>12345</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>12345</v>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-06T02:14:36.455735</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>parag@test.com</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>(701) 368-4379</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>07/07/1990</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-06T02:14:36.455735</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-06T02:14:37.023954</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>APT_20250906_022537_001</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>PAT_058</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Parag Patil</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Shreyansh</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Jubliee Hills</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr"/>
+      <c r="H11" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>Aetna</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-06T02:25:37.657630</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>parag@test.com</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>(701) 368-4370</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>12/12/2002</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-06T02:25:37.657630</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-06T02:25:38.220367</t>
         </is>
       </c>
     </row>

--- a/data/appointments.xlsx
+++ b/data/appointments.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <col width="28" customWidth="1" min="13" max="13"/>
     <col width="11" customWidth="1" min="14" max="14"/>
     <col width="16" customWidth="1" min="15" max="15"/>
-    <col width="19" customWidth="1" min="16" max="16"/>
+    <col width="28" customWidth="1" min="16" max="16"/>
     <col width="16" customWidth="1" min="17" max="17"/>
     <col width="15" customWidth="1" min="18" max="18"/>
     <col width="18" customWidth="1" min="19" max="19"/>
@@ -1502,15 +1502,11 @@
           <t>Aetna</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
+      <c r="K11" s="2" t="n">
+        <v>12345</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>12345</v>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
@@ -1559,6 +1555,107 @@
       <c r="W11" s="2" t="inlineStr">
         <is>
           <t>2025-09-06T02:25:38.220367</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>APT_20250906_034542_001</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>PAT_056</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Shreyansh Bhatter</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Dr. Aish</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Banjara Hills</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr"/>
+      <c r="G12" s="2" t="inlineStr"/>
+      <c r="H12" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>Cigna</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-06T03:45:42.554058</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>shreyanshs070700@gmail.com</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>(701) 368-4370</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>07/07/2004</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-06T03:45:42.554058</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-06T03:45:47.094612</t>
         </is>
       </c>
     </row>

--- a/data/appointments.xlsx
+++ b/data/appointments.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,22 +591,22 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>APT_20250905_005129_001</t>
+          <t>APT_20250905_011040_001</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>PAT_051</t>
+          <t>PAT_054</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Ravi Bhatter</t>
+          <t>A B</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Dr. Naveen</t>
+          <t>Dr. Shreyansh</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -617,7 +617,7 @@
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr"/>
       <c r="H2" s="2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>aetna</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
@@ -637,7 +637,7 @@
       </c>
       <c r="M2" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T00:51:29.162325</t>
+          <t>2025-09-05T01:10:40.525198</t>
         </is>
       </c>
       <c r="N2" s="2" t="b">
@@ -648,17 +648,17 @@
       </c>
       <c r="P2" s="2" t="inlineStr">
         <is>
-          <t>rrsteel@yahoo.com</t>
+          <t>123@123.com</t>
         </is>
       </c>
       <c r="Q2" s="2" t="inlineStr">
         <is>
-          <t>(924) 659-5470</t>
+          <t>(123) 456-7891</t>
         </is>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>10/05/1975</t>
+          <t>06/20/2004</t>
         </is>
       </c>
       <c r="S2" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="U2" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T00:51:29.162325</t>
+          <t>2025-09-05T01:10:40.525198</t>
         </is>
       </c>
       <c r="V2" s="2" t="b">
@@ -681,40 +681,40 @@
       </c>
       <c r="W2" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T00:51:29.442219</t>
+          <t>2025-09-05T01:10:42.285274</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>APT_20250905_005822_001</t>
+          <t>APT_20250905_013229_001</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>PAT_052</t>
+          <t>PAT_055</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Rinku Bhatter</t>
+          <t>Harsh Pach</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Dr. Shreyansh</t>
+          <t>Dr. Naresh</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Banjara Hills</t>
+          <t>Jubliee Hills</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr"/>
       <c r="H3" s="2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
@@ -723,7 +723,7 @@
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>cigna</t>
+          <t>Aetna</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
@@ -734,7 +734,7 @@
       </c>
       <c r="M3" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T00:58:22.872033</t>
+          <t>2025-09-05T01:32:29.411261</t>
         </is>
       </c>
       <c r="N3" s="2" t="b">
@@ -745,17 +745,17 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>rinku@test.com</t>
+          <t>harhs@gamil.cm</t>
         </is>
       </c>
       <c r="Q3" s="2" t="inlineStr">
         <is>
-          <t>(701) 368-4370</t>
+          <t>(701) 368-4380</t>
         </is>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
-          <t>05/27/1975</t>
+          <t>05/12/2004</t>
         </is>
       </c>
       <c r="S3" s="2" t="inlineStr">
@@ -765,12 +765,12 @@
       </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="U3" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T00:58:22.872033</t>
+          <t>2025-09-05T01:32:29.411261</t>
         </is>
       </c>
       <c r="V3" s="2" t="b">
@@ -778,34 +778,34 @@
       </c>
       <c r="W3" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T00:58:22.989938</t>
+          <t>2025-09-05T01:32:31.027631</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>APT_20250905_010102_001</t>
+          <t>APT_20250905_230008_001</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>PAT_052</t>
+          <t>PAT_056</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Rinku Bhatter</t>
+          <t>Shreyansh Bhatter</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Dr. Aish</t>
+          <t>Dr. Naveen</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Banjara Hills</t>
+          <t>Jubliee Hills</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr"/>
@@ -820,7 +820,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>Cigna</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
@@ -831,7 +831,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T01:01:02.409095</t>
+          <t>2025-09-05T23:00:08.624048</t>
         </is>
       </c>
       <c r="N4" s="2" t="b">
@@ -842,17 +842,17 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>rinku@test.com</t>
+          <t>shre@gmail.com</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>(701) 356-7484</t>
+          <t>(701) 368-4370</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>05/27/1975</t>
+          <t>07/07/2004</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
@@ -862,12 +862,12 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T01:01:02.409095</t>
+          <t>2025-09-05T23:00:08.624048</t>
         </is>
       </c>
       <c r="V4" s="2" t="b">
@@ -875,24 +875,24 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T01:01:04.094918</t>
+          <t>2025-09-05T23:00:09.154338</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>APT_20250905_011040_001</t>
+          <t>APT_20250905_230844_001</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>PAT_054</t>
+          <t>PAT_057</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>A B</t>
+          <t>Palak Bhatter</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Gachibowli</t>
+          <t>Banjara Hills</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr"/>
@@ -917,7 +917,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>aetna</t>
+          <t>Blue Cross Blue Shield</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
@@ -928,7 +928,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T01:10:40.525198</t>
+          <t>2025-09-05T23:08:44.538698</t>
         </is>
       </c>
       <c r="N5" s="2" t="b">
@@ -939,17 +939,17 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>123@123.com</t>
+          <t>palak@gmail.com</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>(123) 456-7891</t>
+          <t>(951) 534-0530</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>06/20/2004</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
@@ -959,12 +959,12 @@
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T01:10:40.525198</t>
+          <t>2025-09-05T23:08:44.538698</t>
         </is>
       </c>
       <c r="V5" s="2" t="b">
@@ -972,34 +972,34 @@
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T01:10:42.285274</t>
+          <t>2025-09-05T23:08:45.028881</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>APT_20250905_013229_001</t>
+          <t>APT_20250905_233348_001</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>PAT_055</t>
+          <t>PAT_058</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Harsh Pach</t>
+          <t>Sachin Gupta</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Dr. Naresh</t>
+          <t>Dr. Shreyansh</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Jubliee Hills</t>
+          <t>Banjara Hills</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr"/>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>Aetna</t>
+          <t>Blue Cross Blue Shield</t>
         </is>
       </c>
       <c r="K6" s="2" t="n">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T01:32:29.411261</t>
+          <t>2025-09-05T23:33:48.826418</t>
         </is>
       </c>
       <c r="N6" s="2" t="b">
@@ -1036,17 +1036,17 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>harhs@gamil.cm</t>
+          <t>sachin@elevate.in</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>(701) 368-4380</t>
+          <t>(701) 367-4280</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>05/12/2004</t>
+          <t>12/12/1991</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
@@ -1056,12 +1056,12 @@
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T01:32:29.411261</t>
+          <t>2025-09-05T23:33:48.826418</t>
         </is>
       </c>
       <c r="V6" s="2" t="b">
@@ -1069,40 +1069,40 @@
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T01:32:31.027631</t>
+          <t>2025-09-05T23:33:49.323354</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>APT_20250905_230008_001</t>
+          <t>APT_20250906_021436_001</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>PAT_056</t>
+          <t>PAT_058</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Shreyansh Bhatter</t>
+          <t>Parag Patil</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Dr. Naveen</t>
+          <t>Dr. Naresh</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Jubliee Hills</t>
+          <t>Gachibowli</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr"/>
       <c r="G7" s="2" t="inlineStr"/>
       <c r="H7" s="2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>Blue Cross Blue Shield</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T23:00:08.624048</t>
+          <t>2025-09-06T02:14:36.455735</t>
         </is>
       </c>
       <c r="N7" s="2" t="b">
@@ -1133,17 +1133,17 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>shre@gmail.com</t>
+          <t>parag@test.com</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>(701) 368-4370</t>
+          <t>(701) 368-4379</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>07/07/2004</t>
+          <t>07/07/1990</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
@@ -1153,12 +1153,12 @@
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T23:00:08.624048</t>
+          <t>2025-09-06T02:14:36.455735</t>
         </is>
       </c>
       <c r="V7" s="2" t="b">
@@ -1166,24 +1166,24 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T23:00:09.154338</t>
+          <t>2025-09-06T02:14:37.023954</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>APT_20250905_230844_001</t>
+          <t>APT_20250906_022537_001</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>PAT_057</t>
+          <t>PAT_058</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Palak Bhatter</t>
+          <t>Parag Patil</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Banjara Hills</t>
+          <t>Jubliee Hills</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>Blue Cross Blue Shield</t>
+          <t>Aetna</t>
         </is>
       </c>
       <c r="K8" s="2" t="n">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T23:08:44.538698</t>
+          <t>2025-09-06T02:25:37.657630</t>
         </is>
       </c>
       <c r="N8" s="2" t="b">
@@ -1230,17 +1230,17 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>palak@gmail.com</t>
+          <t>parag@test.com</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>(951) 534-0530</t>
+          <t>(701) 368-4370</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>12/12/2002</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T23:08:44.538698</t>
+          <t>2025-09-06T02:25:37.657630</t>
         </is>
       </c>
       <c r="V8" s="2" t="b">
@@ -1263,24 +1263,24 @@
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T23:08:45.028881</t>
+          <t>2025-09-06T02:25:38.220367</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>APT_20250905_233348_001</t>
+          <t>APT_20250906_045659_001</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>PAT_058</t>
+          <t>PAT_051</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Sachin Gupta</t>
+          <t>Ravi Bhatter</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Banjara Hills</t>
+          <t>Gachibowli</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr"/>
@@ -1305,18 +1305,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>Blue Cross Blue Shield</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>12345</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>12345</v>
+          <t>Cigna</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T23:33:48.826418</t>
+          <t>2025-09-06T04:56:59.174571</t>
         </is>
       </c>
       <c r="N9" s="2" t="b">
@@ -1327,17 +1331,17 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>sachin@elevate.in</t>
+          <t>shreyanshs070700@gmail.com</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>(701) 367-4280</t>
+          <t>(924) 659-5470</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>12/12/1991</t>
+          <t>07/05/1975</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
@@ -1347,12 +1351,12 @@
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T23:33:48.826418</t>
+          <t>2025-09-06T04:56:59.174064</t>
         </is>
       </c>
       <c r="V9" s="2" t="b">
@@ -1360,302 +1364,7 @@
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>2025-09-05T23:33:49.323354</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>APT_20250906_021436_001</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>PAT_058</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Parag Patil</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Dr. Naresh</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Gachibowli</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr"/>
-      <c r="G10" s="2" t="inlineStr"/>
-      <c r="H10" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>confirmed</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>Blue Cross Blue Shield</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>12345</v>
-      </c>
-      <c r="L10" s="2" t="n">
-        <v>12345</v>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>2025-09-06T02:14:36.455735</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>parag@test.com</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>(701) 368-4379</t>
-        </is>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>07/07/1990</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>2025-09-08</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>2025-09-06T02:14:36.455735</t>
-        </is>
-      </c>
-      <c r="V10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W10" s="2" t="inlineStr">
-        <is>
-          <t>2025-09-06T02:14:37.023954</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>APT_20250906_022537_001</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>PAT_058</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>Parag Patil</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>Dr. Shreyansh</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>Jubliee Hills</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr"/>
-      <c r="G11" s="2" t="inlineStr"/>
-      <c r="H11" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>confirmed</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>Aetna</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>12345</v>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>12345</v>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>2025-09-06T02:25:37.657630</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>parag@test.com</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>(701) 368-4370</t>
-        </is>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>12/12/2002</t>
-        </is>
-      </c>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>2025-09-08</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="U11" s="2" t="inlineStr">
-        <is>
-          <t>2025-09-06T02:25:37.657630</t>
-        </is>
-      </c>
-      <c r="V11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W11" s="2" t="inlineStr">
-        <is>
-          <t>2025-09-06T02:25:38.220367</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>APT_20250906_034542_001</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>PAT_056</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>Shreyansh Bhatter</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>Dr. Aish</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Banjara Hills</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr"/>
-      <c r="G12" s="2" t="inlineStr"/>
-      <c r="H12" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>confirmed</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>Cigna</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>2025-09-06T03:45:42.554058</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>shreyanshs070700@gmail.com</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>(701) 368-4370</t>
-        </is>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>07/07/2004</t>
-        </is>
-      </c>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>2025-09-08</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="U12" s="2" t="inlineStr">
-        <is>
-          <t>2025-09-06T03:45:42.554058</t>
-        </is>
-      </c>
-      <c r="V12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W12" s="2" t="inlineStr">
-        <is>
-          <t>2025-09-06T03:45:47.094612</t>
+          <t>2025-09-06T04:57:03.110479</t>
         </is>
       </c>
     </row>
